--- a/docs/马良开发安排.xlsx
+++ b/docs/马良开发安排.xlsx
@@ -304,6 +304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>全体工厂后端组+郭翔+李杰+</t>
     </r>
     <r>
@@ -467,9 +473,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -535,6 +541,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -545,6 +558,37 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,10 +601,55 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,21 +661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -596,30 +670,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -627,50 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -693,43 +699,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,139 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,8 +1000,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,26 +1060,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1088,132 +1074,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,23 +1228,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,9 +1257,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1306,13 +1309,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,13 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1698,428 +1689,427 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="3" width="19.3392857142857" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.3392857142857" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.6339285714286" style="23" customWidth="1"/>
-    <col min="7" max="7" width="35.4107142857143" style="24" customWidth="1"/>
-    <col min="8" max="9" width="35.4107142857143" style="25" customWidth="1"/>
+    <col min="2" max="5" width="19.3392857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.6339285714286" style="21" customWidth="1"/>
+    <col min="7" max="7" width="35.4107142857143" style="1" customWidth="1"/>
+    <col min="8" max="9" width="35.4107142857143" style="22" customWidth="1"/>
     <col min="10" max="10" width="21.4196428571429" style="2" customWidth="1"/>
     <col min="11" max="11" width="27.3482142857143" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:11">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:11">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="37" customHeight="1" spans="1:11">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:11">
-      <c r="A4" s="34"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="39">
         <v>0</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="40">
         <v>1</v>
       </c>
-      <c r="K4" s="33"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:11">
-      <c r="A5" s="34"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="39">
         <v>0</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="40">
         <v>1</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" ht="37" customHeight="1" spans="1:11">
-      <c r="A6" s="34"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" ht="37" customHeight="1" spans="1:11">
-      <c r="A7" s="34"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" ht="37" customHeight="1" spans="1:11">
-      <c r="A8" s="34"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:11">
-      <c r="A9" s="34"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:11">
-      <c r="A10" s="34"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:11">
-      <c r="A12" s="34"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" ht="37" customHeight="1" spans="1:11">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" ht="37" customHeight="1" spans="1:11">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="39">
         <v>0.9</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="40">
         <v>1</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:11">
-      <c r="A15" s="35"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:11">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="39">
         <v>1</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="40">
         <v>1</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:11">
-      <c r="A17" s="34"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="39">
         <v>0</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="40">
         <v>1</v>
       </c>
-      <c r="K17" s="32"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" ht="37" customHeight="1" spans="1:11">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="39">
         <v>0</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="40">
         <v>1</v>
       </c>
-      <c r="K18" s="32"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" ht="37" customHeight="1" spans="1:3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" ht="37" customHeight="1" spans="1:3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" ht="37" customHeight="1" spans="1:3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" ht="37" customHeight="1" spans="1:3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
     </row>
     <row r="23" ht="37" customHeight="1"/>
   </sheetData>
@@ -2156,545 +2146,545 @@
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>43518</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>43525</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>43529</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>43624</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>43539</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>43629</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>43539</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>43578</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>43611</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>43618</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="13" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>43648</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>43620</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>43649</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>43651</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>43668</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>43692</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>43705</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>43703</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>43767</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>43775</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>43774</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>43782</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>43776</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>20191120</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>20191212</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>43833</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>43846</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>141</v>
       </c>
     </row>
